--- a/datasets/objects.xlsx
+++ b/datasets/objects.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,252 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>e1f14a33-7b17-4a65-91d8-09fc30f33be4</t>
+          <t>a9e99205-8046-43f8-872d-722ba28f8a47</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/28/2022</t>
+          <t>12/04/2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>Tzowla Backpack</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>161a131b-e801-4296-8f7c-c277626470fd</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MacBook Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eb8a881e-1f59-4be1-b861-039f5f71d27a</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>iPhone 12 mini</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>44cfd709-5348-4a68-88e6-1a239298420b</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wallet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>8ed25b08-42cd-4ebc-8b99-d9bb067703a6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2001 Jeep Wrangler TJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1e789354-0396-4df2-b557-4419660c39c6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fathers Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b6655a51-0ead-4fa5-93f7-d33f0729255a</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hytest Shoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>4d370975-2637-4d29-8850-e1c4fad20bf9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sony WH-1000XM2 Headphones</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6295d84d-0687-42b7-b614-83f9d000ad95</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Black American Giant Pants</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>e0c7de28-61c6-4f2e-9d92-8d73e3c88340</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Black Medium American Giant Sweatshirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>e6c1439a-80ee-456c-b53a-3a48a10f204d</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kymco People 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>33567ac2-b84e-49ba-91dd-182c1a0c83c6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Windows Surface Laptop</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1a32b75b-90e3-487a-993c-658c65d7c03f</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Blue Beanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>c22544c0-5d62-4caa-a6d6-cdd4e054ae47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/04/2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tepui Ayer 2 Roof Top Tent</t>
         </is>
       </c>
     </row>
@@ -548,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">

--- a/datasets/objects.xlsx
+++ b/datasets/objects.xlsx
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>a9e99205-8046-43f8-872d-722ba28f8a47</t>
+          <t>161a131b-e801-4296-8f7c-c277626470fd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,14 +470,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tzowla Backpack</t>
+          <t>MacBook Pro</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>161a131b-e801-4296-8f7c-c277626470fd</t>
+          <t>eb8a881e-1f59-4be1-b861-039f5f71d27a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,14 +488,14 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MacBook Pro</t>
+          <t>iPhone 12 mini</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eb8a881e-1f59-4be1-b861-039f5f71d27a</t>
+          <t>44cfd709-5348-4a68-88e6-1a239298420b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,14 +506,14 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>iPhone 12 mini</t>
+          <t>Wallet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>44cfd709-5348-4a68-88e6-1a239298420b</t>
+          <t>8ed25b08-42cd-4ebc-8b99-d9bb067703a6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wallet</t>
+          <t>2001 Jeep Wrangler TJ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>8ed25b08-42cd-4ebc-8b99-d9bb067703a6</t>
+          <t>1e789354-0396-4df2-b557-4419660c39c6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -542,14 +542,14 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2001 Jeep Wrangler TJ</t>
+          <t>Fathers Ring</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1e789354-0396-4df2-b557-4419660c39c6</t>
+          <t>b6655a51-0ead-4fa5-93f7-d33f0729255a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,14 +560,14 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fathers Ring</t>
+          <t>Hytest Shoes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>b6655a51-0ead-4fa5-93f7-d33f0729255a</t>
+          <t>4d370975-2637-4d29-8850-e1c4fad20bf9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -578,14 +578,14 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hytest Shoes</t>
+          <t>Sony WH-1000XM2 Headphones</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4d370975-2637-4d29-8850-e1c4fad20bf9</t>
+          <t>6295d84d-0687-42b7-b614-83f9d000ad95</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -596,14 +596,14 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sony WH-1000XM2 Headphones</t>
+          <t>Black American Giant Pants</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6295d84d-0687-42b7-b614-83f9d000ad95</t>
+          <t>e0c7de28-61c6-4f2e-9d92-8d73e3c88340</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Black American Giant Pants</t>
+          <t>Black Medium American Giant Sweatshirt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>e0c7de28-61c6-4f2e-9d92-8d73e3c88340</t>
+          <t>e6c1439a-80ee-456c-b53a-3a48a10f204d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -632,14 +632,14 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Black Medium American Giant Sweatshirt</t>
+          <t>Kymco People 150</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>e6c1439a-80ee-456c-b53a-3a48a10f204d</t>
+          <t>33567ac2-b84e-49ba-91dd-182c1a0c83c6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -650,14 +650,14 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kymco People 150</t>
+          <t>Windows Surface Laptop</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>33567ac2-b84e-49ba-91dd-182c1a0c83c6</t>
+          <t>1a32b75b-90e3-487a-993c-658c65d7c03f</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -668,14 +668,14 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Windows Surface Laptop</t>
+          <t>Blue Beanie</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1a32b75b-90e3-487a-993c-658c65d7c03f</t>
+          <t>c22544c0-5d62-4caa-a6d6-cdd4e054ae47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -686,25 +686,25 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blue Beanie</t>
+          <t>Tepui Ayer 2 Roof Top Tent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>c22544c0-5d62-4caa-a6d6-cdd4e054ae47</t>
+          <t>96e75e54-2568-4661-95ca-aa2e68796f19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tepui Ayer 2 Roof Top Tent</t>
+          <t>Tzowla Backpack</t>
         </is>
       </c>
     </row>

--- a/datasets/objects.xlsx
+++ b/datasets/objects.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>161a131b-e801-4296-8f7c-c277626470fd</t>
+          <t>1a32b75b-90e3-487a-993c-658c65d7c03f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,14 +470,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MacBook Pro</t>
+          <t>Blue Beanie</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eb8a881e-1f59-4be1-b861-039f5f71d27a</t>
+          <t>c22544c0-5d62-4caa-a6d6-cdd4e054ae47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,145 +488,145 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>iPhone 12 mini</t>
+          <t>Tepui Ayer 2 Roof Top Tent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>44cfd709-5348-4a68-88e6-1a239298420b</t>
+          <t>96e75e54-2568-4661-95ca-aa2e68796f19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/05/2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wallet</t>
+          <t>Tzowla Backpack</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>8ed25b08-42cd-4ebc-8b99-d9bb067703a6</t>
+          <t>efe4ad19-37a4-46d1-9c77-98c64681c479</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2001 Jeep Wrangler TJ</t>
+          <t>1905 Northwest 29th Avenue</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1e789354-0396-4df2-b557-4419660c39c6</t>
+          <t>2aa20b68-5fc6-433e-9119-f5d22cf13d8d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fathers Ring</t>
+          <t>MacBook Pro</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>b6655a51-0ead-4fa5-93f7-d33f0729255a</t>
+          <t>d3388433-2465-48a3-abef-dd40fdc86a5a</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hytest Shoes</t>
+          <t>iPhone 12 mini</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4d370975-2637-4d29-8850-e1c4fad20bf9</t>
+          <t>e4efd5da-145f-4fc3-8e73-d88dd9c8138f</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sony WH-1000XM2 Headphones</t>
+          <t>2001 Jeep Wrangler TJ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6295d84d-0687-42b7-b614-83f9d000ad95</t>
+          <t>5cb91532-a4c3-462c-8dbd-01912cb4adcc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Black American Giant Pants</t>
+          <t>Father's Ring</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>e0c7de28-61c6-4f2e-9d92-8d73e3c88340</t>
+          <t>f9b30c52-972a-4488-a444-9bbf2d2cc4d4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Black Medium American Giant Sweatshirt</t>
+          <t>Sony WH-1000XM2 Headphones</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>e6c1439a-80ee-456c-b53a-3a48a10f204d</t>
+          <t>8d5b0ccd-08a5-4c84-8979-b4a60c5f3f57</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -639,72 +639,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>33567ac2-b84e-49ba-91dd-182c1a0c83c6</t>
+          <t>3cde43f3-4d9c-4715-8df6-d5bd52ed7c26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/04/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Windows Surface Laptop</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1a32b75b-90e3-487a-993c-658c65d7c03f</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12/04/2022</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Blue Beanie</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>c22544c0-5d62-4caa-a6d6-cdd4e054ae47</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>12/04/2022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tepui Ayer 2 Roof Top Tent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>96e75e54-2568-4661-95ca-aa2e68796f19</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>12/05/2022</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tzowla Backpack</t>
+          <t>Surface Book 3</t>
         </is>
       </c>
     </row>

--- a/datasets/objects.xlsx
+++ b/datasets/objects.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,6 +651,24 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>Surface Book 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8f4a9a29-4edd-4c6b-8214-306c3778ab4a</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vehicle Logistics Trainee</t>
         </is>
       </c>
     </row>

--- a/datasets/objects.xlsx
+++ b/datasets/objects.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,60 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Vehicle Logistics Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ee95d5d4-e49e-441d-8c42-c3c0f133bd63</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>window xmas lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>f1584e3e-7f2c-4043-91be-4620997045c5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Barnes &amp; Noble Gift Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>939957c7-4614-4578-a24f-897463e242d5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/10/2022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Target Gift Card</t>
         </is>
       </c>
     </row>
